--- a/3-extraregels/IMKL-ExtraRegels-3.0rc3.xlsx
+++ b/3-extraregels/IMKL-ExtraRegels-3.0rc3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.janssen.GNM\Documents\Github\imkl-werkomgeving\3-extraregels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB14C7C-C8EF-426D-8C3D-F873BD419D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8609BE4A-D00B-45AA-BB72-AC1C4A5110A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5445" windowWidth="38640" windowHeight="21120" tabRatio="875" firstSheet="17" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-8010" windowWidth="29040" windowHeight="15720" tabRatio="875" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NL-WIBON" sheetId="27" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="456">
   <si>
     <t>Annotatie</t>
   </si>
@@ -1575,6 +1575,9 @@
     <t>1) verplicht bij: graafmelding en niet toegestaan bij calamiteitenmelding.
 2) verplicht bij: orientatieverzoek indien voorbereiding­Coordinatie­Civiele­Werken en voorbereiding­Medegebruik­Fysieke­Infrastructuur allebei 'false' zijn.
 3) niet toegestaan bij: orientatieverzoek indien voorbereiding­Coordinatie­Civiele­Werken is 'true' of voorbereiding­Medegebruik­Fysieke­Infrastructuur is 'true'.</t>
+  </si>
+  <si>
+    <t>Niet van toepassing als eigenaar = ja</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2163,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2287,9 +2290,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="448">
@@ -4137,8 +4137,8 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4798,7 +4798,7 @@
         <v>29</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>138</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -12816,7 +12816,7 @@
   </sheetPr>
   <dimension ref="A1:DK89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
@@ -13977,115 +13977,115 @@
       <c r="F58" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="53"/>
-      <c r="P58" s="53"/>
-      <c r="Q58" s="53"/>
-      <c r="R58" s="53"/>
-      <c r="S58" s="53"/>
-      <c r="T58" s="53"/>
-      <c r="U58" s="53"/>
-      <c r="V58" s="53"/>
-      <c r="W58" s="53"/>
-      <c r="X58" s="53"/>
-      <c r="Y58" s="53"/>
-      <c r="Z58" s="53"/>
-      <c r="AA58" s="53"/>
-      <c r="AB58" s="53"/>
-      <c r="AC58" s="53"/>
-      <c r="AD58" s="53"/>
-      <c r="AE58" s="53"/>
-      <c r="AF58" s="53"/>
-      <c r="AG58" s="53"/>
-      <c r="AH58" s="53"/>
-      <c r="AI58" s="53"/>
-      <c r="AJ58" s="53"/>
-      <c r="AK58" s="53"/>
-      <c r="AL58" s="53"/>
-      <c r="AM58" s="53"/>
-      <c r="AN58" s="53"/>
-      <c r="AO58" s="53"/>
-      <c r="AP58" s="53"/>
-      <c r="AQ58" s="53"/>
-      <c r="AR58" s="53"/>
-      <c r="AS58" s="53"/>
-      <c r="AT58" s="53"/>
-      <c r="AU58" s="53"/>
-      <c r="AV58" s="53"/>
-      <c r="AW58" s="53"/>
-      <c r="AX58" s="53"/>
-      <c r="AY58" s="53"/>
-      <c r="AZ58" s="53"/>
-      <c r="BA58" s="53"/>
-      <c r="BB58" s="53"/>
-      <c r="BC58" s="53"/>
-      <c r="BD58" s="53"/>
-      <c r="BE58" s="53"/>
-      <c r="BF58" s="53"/>
-      <c r="BG58" s="53"/>
-      <c r="BH58" s="53"/>
-      <c r="BI58" s="53"/>
-      <c r="BJ58" s="53"/>
-      <c r="BK58" s="53"/>
-      <c r="BL58" s="53"/>
-      <c r="BM58" s="53"/>
-      <c r="BN58" s="53"/>
-      <c r="BO58" s="53"/>
-      <c r="BP58" s="53"/>
-      <c r="BQ58" s="53"/>
-      <c r="BR58" s="53"/>
-      <c r="BS58" s="53"/>
-      <c r="BT58" s="53"/>
-      <c r="BU58" s="53"/>
-      <c r="BV58" s="53"/>
-      <c r="BW58" s="53"/>
-      <c r="BX58" s="53"/>
-      <c r="BY58" s="53"/>
-      <c r="BZ58" s="53"/>
-      <c r="CA58" s="53"/>
-      <c r="CB58" s="53"/>
-      <c r="CC58" s="53"/>
-      <c r="CD58" s="53"/>
-      <c r="CE58" s="53"/>
-      <c r="CF58" s="53"/>
-      <c r="CG58" s="53"/>
-      <c r="CH58" s="53"/>
-      <c r="CI58" s="53"/>
-      <c r="CJ58" s="53"/>
-      <c r="CK58" s="53"/>
-      <c r="CL58" s="53"/>
-      <c r="CM58" s="53"/>
-      <c r="CN58" s="53"/>
-      <c r="CO58" s="53"/>
-      <c r="CP58" s="53"/>
-      <c r="CQ58" s="53"/>
-      <c r="CR58" s="53"/>
-      <c r="CS58" s="53"/>
-      <c r="CT58" s="53"/>
-      <c r="CU58" s="53"/>
-      <c r="CV58" s="53"/>
-      <c r="CW58" s="53"/>
-      <c r="CX58" s="53"/>
-      <c r="CY58" s="53"/>
-      <c r="CZ58" s="53"/>
-      <c r="DA58" s="53"/>
-      <c r="DB58" s="53"/>
-      <c r="DC58" s="53"/>
-      <c r="DD58" s="53"/>
-      <c r="DE58" s="53"/>
-      <c r="DF58" s="53"/>
-      <c r="DG58" s="53"/>
-      <c r="DH58" s="53"/>
-      <c r="DI58" s="53"/>
-      <c r="DJ58" s="53"/>
-      <c r="DK58" s="53"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="32"/>
+      <c r="V58" s="32"/>
+      <c r="W58" s="32"/>
+      <c r="X58" s="32"/>
+      <c r="Y58" s="32"/>
+      <c r="Z58" s="32"/>
+      <c r="AA58" s="32"/>
+      <c r="AB58" s="32"/>
+      <c r="AC58" s="32"/>
+      <c r="AD58" s="32"/>
+      <c r="AE58" s="32"/>
+      <c r="AF58" s="32"/>
+      <c r="AG58" s="32"/>
+      <c r="AH58" s="32"/>
+      <c r="AI58" s="32"/>
+      <c r="AJ58" s="32"/>
+      <c r="AK58" s="32"/>
+      <c r="AL58" s="32"/>
+      <c r="AM58" s="32"/>
+      <c r="AN58" s="32"/>
+      <c r="AO58" s="32"/>
+      <c r="AP58" s="32"/>
+      <c r="AQ58" s="32"/>
+      <c r="AR58" s="32"/>
+      <c r="AS58" s="32"/>
+      <c r="AT58" s="32"/>
+      <c r="AU58" s="32"/>
+      <c r="AV58" s="32"/>
+      <c r="AW58" s="32"/>
+      <c r="AX58" s="32"/>
+      <c r="AY58" s="32"/>
+      <c r="AZ58" s="32"/>
+      <c r="BA58" s="32"/>
+      <c r="BB58" s="32"/>
+      <c r="BC58" s="32"/>
+      <c r="BD58" s="32"/>
+      <c r="BE58" s="32"/>
+      <c r="BF58" s="32"/>
+      <c r="BG58" s="32"/>
+      <c r="BH58" s="32"/>
+      <c r="BI58" s="32"/>
+      <c r="BJ58" s="32"/>
+      <c r="BK58" s="32"/>
+      <c r="BL58" s="32"/>
+      <c r="BM58" s="32"/>
+      <c r="BN58" s="32"/>
+      <c r="BO58" s="32"/>
+      <c r="BP58" s="32"/>
+      <c r="BQ58" s="32"/>
+      <c r="BR58" s="32"/>
+      <c r="BS58" s="32"/>
+      <c r="BT58" s="32"/>
+      <c r="BU58" s="32"/>
+      <c r="BV58" s="32"/>
+      <c r="BW58" s="32"/>
+      <c r="BX58" s="32"/>
+      <c r="BY58" s="32"/>
+      <c r="BZ58" s="32"/>
+      <c r="CA58" s="32"/>
+      <c r="CB58" s="32"/>
+      <c r="CC58" s="32"/>
+      <c r="CD58" s="32"/>
+      <c r="CE58" s="32"/>
+      <c r="CF58" s="32"/>
+      <c r="CG58" s="32"/>
+      <c r="CH58" s="32"/>
+      <c r="CI58" s="32"/>
+      <c r="CJ58" s="32"/>
+      <c r="CK58" s="32"/>
+      <c r="CL58" s="32"/>
+      <c r="CM58" s="32"/>
+      <c r="CN58" s="32"/>
+      <c r="CO58" s="32"/>
+      <c r="CP58" s="32"/>
+      <c r="CQ58" s="32"/>
+      <c r="CR58" s="32"/>
+      <c r="CS58" s="32"/>
+      <c r="CT58" s="32"/>
+      <c r="CU58" s="32"/>
+      <c r="CV58" s="32"/>
+      <c r="CW58" s="32"/>
+      <c r="CX58" s="32"/>
+      <c r="CY58" s="32"/>
+      <c r="CZ58" s="32"/>
+      <c r="DA58" s="32"/>
+      <c r="DB58" s="32"/>
+      <c r="DC58" s="32"/>
+      <c r="DD58" s="32"/>
+      <c r="DE58" s="32"/>
+      <c r="DF58" s="32"/>
+      <c r="DG58" s="32"/>
+      <c r="DH58" s="32"/>
+      <c r="DI58" s="32"/>
+      <c r="DJ58" s="32"/>
+      <c r="DK58" s="32"/>
     </row>
     <row r="59" spans="1:115" s="36" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
@@ -14106,115 +14106,115 @@
       <c r="F59" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="53"/>
-      <c r="Q59" s="53"/>
-      <c r="R59" s="53"/>
-      <c r="S59" s="53"/>
-      <c r="T59" s="53"/>
-      <c r="U59" s="53"/>
-      <c r="V59" s="53"/>
-      <c r="W59" s="53"/>
-      <c r="X59" s="53"/>
-      <c r="Y59" s="53"/>
-      <c r="Z59" s="53"/>
-      <c r="AA59" s="53"/>
-      <c r="AB59" s="53"/>
-      <c r="AC59" s="53"/>
-      <c r="AD59" s="53"/>
-      <c r="AE59" s="53"/>
-      <c r="AF59" s="53"/>
-      <c r="AG59" s="53"/>
-      <c r="AH59" s="53"/>
-      <c r="AI59" s="53"/>
-      <c r="AJ59" s="53"/>
-      <c r="AK59" s="53"/>
-      <c r="AL59" s="53"/>
-      <c r="AM59" s="53"/>
-      <c r="AN59" s="53"/>
-      <c r="AO59" s="53"/>
-      <c r="AP59" s="53"/>
-      <c r="AQ59" s="53"/>
-      <c r="AR59" s="53"/>
-      <c r="AS59" s="53"/>
-      <c r="AT59" s="53"/>
-      <c r="AU59" s="53"/>
-      <c r="AV59" s="53"/>
-      <c r="AW59" s="53"/>
-      <c r="AX59" s="53"/>
-      <c r="AY59" s="53"/>
-      <c r="AZ59" s="53"/>
-      <c r="BA59" s="53"/>
-      <c r="BB59" s="53"/>
-      <c r="BC59" s="53"/>
-      <c r="BD59" s="53"/>
-      <c r="BE59" s="53"/>
-      <c r="BF59" s="53"/>
-      <c r="BG59" s="53"/>
-      <c r="BH59" s="53"/>
-      <c r="BI59" s="53"/>
-      <c r="BJ59" s="53"/>
-      <c r="BK59" s="53"/>
-      <c r="BL59" s="53"/>
-      <c r="BM59" s="53"/>
-      <c r="BN59" s="53"/>
-      <c r="BO59" s="53"/>
-      <c r="BP59" s="53"/>
-      <c r="BQ59" s="53"/>
-      <c r="BR59" s="53"/>
-      <c r="BS59" s="53"/>
-      <c r="BT59" s="53"/>
-      <c r="BU59" s="53"/>
-      <c r="BV59" s="53"/>
-      <c r="BW59" s="53"/>
-      <c r="BX59" s="53"/>
-      <c r="BY59" s="53"/>
-      <c r="BZ59" s="53"/>
-      <c r="CA59" s="53"/>
-      <c r="CB59" s="53"/>
-      <c r="CC59" s="53"/>
-      <c r="CD59" s="53"/>
-      <c r="CE59" s="53"/>
-      <c r="CF59" s="53"/>
-      <c r="CG59" s="53"/>
-      <c r="CH59" s="53"/>
-      <c r="CI59" s="53"/>
-      <c r="CJ59" s="53"/>
-      <c r="CK59" s="53"/>
-      <c r="CL59" s="53"/>
-      <c r="CM59" s="53"/>
-      <c r="CN59" s="53"/>
-      <c r="CO59" s="53"/>
-      <c r="CP59" s="53"/>
-      <c r="CQ59" s="53"/>
-      <c r="CR59" s="53"/>
-      <c r="CS59" s="53"/>
-      <c r="CT59" s="53"/>
-      <c r="CU59" s="53"/>
-      <c r="CV59" s="53"/>
-      <c r="CW59" s="53"/>
-      <c r="CX59" s="53"/>
-      <c r="CY59" s="53"/>
-      <c r="CZ59" s="53"/>
-      <c r="DA59" s="53"/>
-      <c r="DB59" s="53"/>
-      <c r="DC59" s="53"/>
-      <c r="DD59" s="53"/>
-      <c r="DE59" s="53"/>
-      <c r="DF59" s="53"/>
-      <c r="DG59" s="53"/>
-      <c r="DH59" s="53"/>
-      <c r="DI59" s="53"/>
-      <c r="DJ59" s="53"/>
-      <c r="DK59" s="53"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="32"/>
+      <c r="V59" s="32"/>
+      <c r="W59" s="32"/>
+      <c r="X59" s="32"/>
+      <c r="Y59" s="32"/>
+      <c r="Z59" s="32"/>
+      <c r="AA59" s="32"/>
+      <c r="AB59" s="32"/>
+      <c r="AC59" s="32"/>
+      <c r="AD59" s="32"/>
+      <c r="AE59" s="32"/>
+      <c r="AF59" s="32"/>
+      <c r="AG59" s="32"/>
+      <c r="AH59" s="32"/>
+      <c r="AI59" s="32"/>
+      <c r="AJ59" s="32"/>
+      <c r="AK59" s="32"/>
+      <c r="AL59" s="32"/>
+      <c r="AM59" s="32"/>
+      <c r="AN59" s="32"/>
+      <c r="AO59" s="32"/>
+      <c r="AP59" s="32"/>
+      <c r="AQ59" s="32"/>
+      <c r="AR59" s="32"/>
+      <c r="AS59" s="32"/>
+      <c r="AT59" s="32"/>
+      <c r="AU59" s="32"/>
+      <c r="AV59" s="32"/>
+      <c r="AW59" s="32"/>
+      <c r="AX59" s="32"/>
+      <c r="AY59" s="32"/>
+      <c r="AZ59" s="32"/>
+      <c r="BA59" s="32"/>
+      <c r="BB59" s="32"/>
+      <c r="BC59" s="32"/>
+      <c r="BD59" s="32"/>
+      <c r="BE59" s="32"/>
+      <c r="BF59" s="32"/>
+      <c r="BG59" s="32"/>
+      <c r="BH59" s="32"/>
+      <c r="BI59" s="32"/>
+      <c r="BJ59" s="32"/>
+      <c r="BK59" s="32"/>
+      <c r="BL59" s="32"/>
+      <c r="BM59" s="32"/>
+      <c r="BN59" s="32"/>
+      <c r="BO59" s="32"/>
+      <c r="BP59" s="32"/>
+      <c r="BQ59" s="32"/>
+      <c r="BR59" s="32"/>
+      <c r="BS59" s="32"/>
+      <c r="BT59" s="32"/>
+      <c r="BU59" s="32"/>
+      <c r="BV59" s="32"/>
+      <c r="BW59" s="32"/>
+      <c r="BX59" s="32"/>
+      <c r="BY59" s="32"/>
+      <c r="BZ59" s="32"/>
+      <c r="CA59" s="32"/>
+      <c r="CB59" s="32"/>
+      <c r="CC59" s="32"/>
+      <c r="CD59" s="32"/>
+      <c r="CE59" s="32"/>
+      <c r="CF59" s="32"/>
+      <c r="CG59" s="32"/>
+      <c r="CH59" s="32"/>
+      <c r="CI59" s="32"/>
+      <c r="CJ59" s="32"/>
+      <c r="CK59" s="32"/>
+      <c r="CL59" s="32"/>
+      <c r="CM59" s="32"/>
+      <c r="CN59" s="32"/>
+      <c r="CO59" s="32"/>
+      <c r="CP59" s="32"/>
+      <c r="CQ59" s="32"/>
+      <c r="CR59" s="32"/>
+      <c r="CS59" s="32"/>
+      <c r="CT59" s="32"/>
+      <c r="CU59" s="32"/>
+      <c r="CV59" s="32"/>
+      <c r="CW59" s="32"/>
+      <c r="CX59" s="32"/>
+      <c r="CY59" s="32"/>
+      <c r="CZ59" s="32"/>
+      <c r="DA59" s="32"/>
+      <c r="DB59" s="32"/>
+      <c r="DC59" s="32"/>
+      <c r="DD59" s="32"/>
+      <c r="DE59" s="32"/>
+      <c r="DF59" s="32"/>
+      <c r="DG59" s="32"/>
+      <c r="DH59" s="32"/>
+      <c r="DI59" s="32"/>
+      <c r="DJ59" s="32"/>
+      <c r="DK59" s="32"/>
     </row>
     <row r="60" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -17696,7 +17696,7 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
